--- a/tools/intuitem/intuitem-common-catalog.xlsx
+++ b/tools/intuitem/intuitem-common-catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85203D4-EF20-8248-8B59-CC23CF5A8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2FA5C-BE50-254D-87DF-A813374C9F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="-28300" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{51B6DAAB-0941-6E4A-80AD-87A473018E8F}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>Exploitation d'APIs mal sécurisées pour un accès non autorisé, des fuites de données et la manipulation de la logique métier.</t>
   </si>
   <si>
-    <t>Exposition non autorisée de données via des applications ou services utilisés par les employés sans l'approbation de l'organisation.</t>
-  </si>
-  <si>
     <t>Menaces de Sécurité Physique (Manipulation et Vol)</t>
   </si>
   <si>
@@ -432,9 +429,6 @@
     <t>Exploiting poorly secured APIs for unauthorized access, data breaches, and business logic manipulation</t>
   </si>
   <si>
-    <t>Unauthorized data exposure through applications or services used by employees without the organisation approval</t>
-  </si>
-  <si>
     <t>Unauthorized physical access to hardware, tampering, or theft, leading to data breaches or hardware manipulation</t>
   </si>
   <si>
@@ -451,13 +445,19 @@
   </si>
   <si>
     <t>Courriels ou messages trompeurs incitant les utilisateurs à révéler des informations sensibles ou à donner accès</t>
+  </si>
+  <si>
+    <t>Unauthorized data exposure due to an attack, mistake or through applications or services used by employees without the organisation approval</t>
+  </si>
+  <si>
+    <t>Exposition non autorisée de données à cause d'une attaque, erreur ou via des applications ou services utilisés par les employés sans l'approbation de l'organisation.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,6 +475,12 @@
       <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -498,12 +504,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,15 +860,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -869,77 +876,77 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +960,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -990,13 +997,13 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,13 +1014,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -1041,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1058,7 +1065,7 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1075,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -1092,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -1109,7 +1116,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
         <v>54</v>
@@ -1126,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -1143,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1160,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -1177,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D13" t="s">
         <v>61</v>
@@ -1194,7 +1201,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
         <v>63</v>
@@ -1208,16 +1215,16 @@
         <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1235,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>65</v>
@@ -1245,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" t="s">
         <v>67</v>
@@ -1262,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
@@ -1279,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
         <v>71</v>
@@ -1289,20 +1296,20 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,64 +1320,64 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
         <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
